--- a/1 семинар/Семинар1_данные.xlsx
+++ b/1 семинар/Семинар1_данные.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SnowCat\Documents\Geekbrains\Аналитика Excel\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\Обучение-Разработчик\Специализация - Аналитик\1 четверть\GB4623_A_Basics_of_Excel\1 семинар\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F1A1E1-C8A3-48FA-9A33-FCE64471783D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" xr2:uid="{3C993F87-5E2B-4514-AE04-227014C39127}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId2"/>
+    <sheet name="Книги" sheetId="1" r:id="rId3"/>
+    <sheet name="Ряды" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="lang">'Лист 1'!$K$6:$K$10</definedName>
+    <definedName name="lang">Книги!$K$6:$K$10</definedName>
+    <definedName name="language">Книги!$K$4:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="15" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -116,12 +122,57 @@
   </si>
   <si>
     <t>Михаил Булгаков</t>
+  </si>
+  <si>
+    <t>Французский</t>
+  </si>
+  <si>
+    <t>Немецкий</t>
+  </si>
+  <si>
+    <t>Итальянский</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Язык</t>
+  </si>
+  <si>
+    <t>Арифметическая прогрессия</t>
+  </si>
+  <si>
+    <t>Геометрическая прогрессия</t>
+  </si>
+  <si>
+    <t>Даты</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Сумма по полю Продано экземпляров</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Выручка по наименованию</t>
+  </si>
+  <si>
+    <t>Итого:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,15 +183,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -148,24 +211,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -181,6 +441,1379 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Семинар1_данные.xlsx]Лист2!Сводная таблица9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сумма по полю Продано экземпляров по строке Язык оригинала</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Итог</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Английский</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Итальянский</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Немецкий</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Русский</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Французский</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B22E-4B05-B778-56CD522D3193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="431448528"/>
+        <c:axId val="431448944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="431448528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431448944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431448944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431448528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Александра" refreshedDate="45119.898798263886" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G11" sheet="Книги"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="№" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Название" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Автор" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Год" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1925" maxValue="1980"/>
+    </cacheField>
+    <cacheField name="Язык оригинала" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Французский"/>
+        <s v="Немецкий"/>
+        <s v="Английский"/>
+        <s v="Итальянский"/>
+        <s v="Русский"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Цена" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="320"/>
+    </cacheField>
+    <cacheField name="Продано экземпляров" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Александра" refreshedDate="45119.899728356482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G11" sheet="Книги"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="№" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Название" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Автор" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Год" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1925" maxValue="1980"/>
+    </cacheField>
+    <cacheField name="Язык оригинала" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Французский"/>
+        <s v="Немецкий"/>
+        <s v="Английский"/>
+        <s v="Итальянский"/>
+        <s v="Русский"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Цена" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="320"/>
+    </cacheField>
+    <cacheField name="Продано экземпляров" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <n v="1"/>
+    <s v="Посторонний"/>
+    <s v="Альбер Камю"/>
+    <n v="1942"/>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="В поисках утраченного времени"/>
+    <s v="Марсель Пруст"/>
+    <n v="1927"/>
+    <x v="0"/>
+    <n v="270"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Процесс"/>
+    <s v="Франц Кафка"/>
+    <n v="1925"/>
+    <x v="1"/>
+    <n v="260"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Маленький принц"/>
+    <s v="Антуан де Сент-Экзюпери"/>
+    <n v="1943"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Удел человеческий"/>
+    <s v="Андре Мальро"/>
+    <n v="1933"/>
+    <x v="0"/>
+    <n v="320"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Путешествие на край ночи"/>
+    <s v="Луи-Фердинанд Селин"/>
+    <n v="1932"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Гроздья гнева"/>
+    <s v="Джон Стейнбек"/>
+    <n v="1939"/>
+    <x v="2"/>
+    <n v="230"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="По ком звонит колокол"/>
+    <s v="Эрнест Хэмингуэй"/>
+    <n v="1940"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Имя розы"/>
+    <s v="Умберто Эко"/>
+    <n v="1980"/>
+    <x v="3"/>
+    <n v="210"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Мастер и Маргарита"/>
+    <s v="Михаил Булгаков"/>
+    <n v="1967"/>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="22"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <n v="1"/>
+    <s v="Посторонний"/>
+    <s v="Альбер Камю"/>
+    <n v="1942"/>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="В поисках утраченного времени"/>
+    <s v="Марсель Пруст"/>
+    <n v="1927"/>
+    <x v="0"/>
+    <n v="270"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Процесс"/>
+    <s v="Франц Кафка"/>
+    <n v="1925"/>
+    <x v="1"/>
+    <n v="260"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Маленький принц"/>
+    <s v="Антуан де Сент-Экзюпери"/>
+    <n v="1943"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Удел человеческий"/>
+    <s v="Андре Мальро"/>
+    <n v="1933"/>
+    <x v="0"/>
+    <n v="320"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Путешествие на край ночи"/>
+    <s v="Луи-Фердинанд Селин"/>
+    <n v="1932"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Гроздья гнева"/>
+    <s v="Джон Стейнбек"/>
+    <n v="1939"/>
+    <x v="2"/>
+    <n v="230"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="По ком звонит колокол"/>
+    <s v="Эрнест Хэмингуэй"/>
+    <n v="1940"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Имя розы"/>
+    <s v="Умберто Эко"/>
+    <n v="1980"/>
+    <x v="3"/>
+    <n v="210"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Мастер и Маргарита"/>
+    <s v="Михаил Булгаков"/>
+    <n v="1967"/>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="22"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Продано экземпляров" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица9" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="167" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Продано экземпляров" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,467 +2112,680 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA79629-C2E7-4595-9436-4AF2BBA60DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="31">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="31">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>1942</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="9">
         <v>250</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="19">
         <v>19</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="32">
+        <f>F2*G2</f>
+        <v>4750</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>1927</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="9">
         <v>270</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="19">
         <v>15</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="33">
+        <f t="shared" ref="H3:H11" si="0">F3*G3</f>
+        <v>4050</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1925</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9">
         <v>260</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="19">
         <v>20</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="33">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="N4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>1943</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9">
         <v>300</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="19">
         <v>25</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="33">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>1933</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9">
         <v>320</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="19">
         <v>17</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="33">
+        <f t="shared" si="0"/>
+        <v>5440</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>1932</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9">
         <v>200</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="19">
         <v>16</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>1939</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9">
         <v>230</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="19">
         <v>18</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="33">
+        <f t="shared" si="0"/>
+        <v>4140</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>1940</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9">
         <v>300</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="19">
         <v>23</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="33">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>1980</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9">
         <v>210</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="19">
         <v>16</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="33">
+        <f t="shared" si="0"/>
+        <v>3360</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="5">
         <v>1967</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10">
         <v>250</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="20">
         <v>22</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="34">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="36">
+        <f>SUM(H2:H11)</f>
+        <v>50040</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -947,25 +2793,198 @@
       <c r="L22" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1EDA3148-5EC9-4A00-871E-0DE1DF88E6C4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
+      <formula1>language</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1EDA3148-5EC9-4A00-871E-0DE1DF88E6C4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB070980-2B4D-4DA0-85EB-EFFA810C3B5A}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
+        <v>4</v>
+      </c>
+      <c r="B3" s="26">
+        <v>4</v>
+      </c>
+      <c r="C3" s="27">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
+        <v>6</v>
+      </c>
+      <c r="B4" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4" s="27">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>8</v>
+      </c>
+      <c r="B5" s="26">
+        <v>16</v>
+      </c>
+      <c r="C5" s="27">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>10</v>
+      </c>
+      <c r="B6" s="26">
+        <v>32</v>
+      </c>
+      <c r="C6" s="27">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>12</v>
+      </c>
+      <c r="B7" s="26">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
+        <v>14</v>
+      </c>
+      <c r="B8" s="26">
+        <v>128</v>
+      </c>
+      <c r="C8" s="27">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <v>16</v>
+      </c>
+      <c r="B9" s="26">
+        <v>256</v>
+      </c>
+      <c r="C9" s="27">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>18</v>
+      </c>
+      <c r="B10" s="26">
+        <v>512</v>
+      </c>
+      <c r="C10" s="27">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>20</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="27">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>SUM(A2:A11)</f>
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>2046</v>
+      </c>
+      <c r="C12">
+        <f>SUM(A12:B12)</f>
+        <v>2156</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>